--- a/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
+++ b/DESIGN/rules/Example 3 - Auto Policy Calculation/AutoPolicyTests.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="152">
   <si>
     <t>2005 Honda Odyssey</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>Test DetermineDriverPremium DriverPremiumTest</t>
+  </si>
+  <si>
+    <t>Test DeterminePolicyPremium PolicyPremiumTest1</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1635,7 @@
     <row r="6" spans="2:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="63" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
